--- a/相关补偿数据统计.xlsx
+++ b/相关补偿数据统计.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDoc\Git.LabourArbitration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0A6842A1-0B83-40F1-91D0-46F583F5D5D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年假计算" sheetId="1" r:id="rId1"/>
     <sheet name="扣除部分工资" sheetId="2" r:id="rId2"/>
     <sheet name="公积金差额" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -190,11 +196,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,134 +392,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,11 +528,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +614,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,6 +666,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,370 +859,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="11.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>30</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>31</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>30</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>31</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>31</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>30</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>31</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>30</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>31</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <f>SUM(B2:M2)</f>
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>28</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>31</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <f>SUM(B3:M3)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="33" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>282</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>365</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>B6/C6*D6</f>
         <v>7.7260273972602747</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>F6-G6</f>
         <v>7</v>
       </c>
-      <c r="I6" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="I6" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>365</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>365</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <f t="shared" ref="E7:E11" si="0">B7/C7*D7</f>
         <v>10</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7:H11" si="1">F7-G7</f>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H10" si="1">F7-G7</f>
         <v>5</v>
       </c>
-      <c r="I7" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>365</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>365</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>365</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>365</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>365</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>365</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>15200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>98</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>365</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>2.6849315068493151</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>27</v>
       </c>
     </row>
@@ -1187,14 +1237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -1202,27 +1252,27 @@
     <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="27" customHeight="1">
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>43101</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>43132</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>43160</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>43191</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1285,7 @@
       <c r="D5" s="3">
         <v>15200</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <f>15200/21*5</f>
         <v>3619.0476190476193</v>
       </c>
@@ -1243,103 +1293,103 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1">
+    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>13950</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>7700</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>7700</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <f>15000/21*5/2</f>
         <v>1785.7142857142858</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1">
+    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <f>B5-B6</f>
         <v>2250</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <f t="shared" ref="C7:E7" si="0">C5-C6</f>
         <v>7500</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>1833.3333333333335</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <f>SUM(B7:E7)</f>
         <v>19083.333333333332</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1354,25 +1404,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="15" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1409,1351 +1459,1351 @@
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="G2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="H2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="I2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="J2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="K2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="L2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="M2" s="20">
-        <v>15000</v>
-      </c>
-      <c r="N2" s="20">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="J2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="L2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="M2" s="14">
+        <v>15000</v>
+      </c>
+      <c r="N2" s="14">
         <v>15000</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="N3" s="21">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="N3" s="15">
         <v>0.06</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14">
         <f>F2*F3</f>
         <v>900</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="14">
         <f t="shared" ref="G4:N4" si="0">G2*G3</f>
         <v>900</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="14">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>120</v>
-      </c>
-      <c r="G5" s="20">
-        <v>120</v>
-      </c>
-      <c r="H5" s="20">
-        <v>120</v>
-      </c>
-      <c r="I5" s="20">
-        <v>120</v>
-      </c>
-      <c r="J5" s="20">
-        <v>120</v>
-      </c>
-      <c r="K5" s="20">
-        <v>120</v>
-      </c>
-      <c r="L5" s="20">
-        <v>120</v>
-      </c>
-      <c r="M5" s="20">
-        <v>120</v>
-      </c>
-      <c r="N5" s="20">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>120</v>
+      </c>
+      <c r="G5" s="14">
+        <v>120</v>
+      </c>
+      <c r="H5" s="14">
+        <v>120</v>
+      </c>
+      <c r="I5" s="14">
+        <v>120</v>
+      </c>
+      <c r="J5" s="14">
+        <v>120</v>
+      </c>
+      <c r="K5" s="14">
+        <v>120</v>
+      </c>
+      <c r="L5" s="14">
+        <v>120</v>
+      </c>
+      <c r="M5" s="14">
+        <v>120</v>
+      </c>
+      <c r="N5" s="14">
         <v>120</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
         <f>F4-F5</f>
         <v>780</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <f t="shared" ref="G6:N6" si="1">G4-G5</f>
         <v>780</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="16">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="34">
         <f>SUM(C6:N6)</f>
         <v>7020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="E7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="F7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="G7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="I7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="J7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="K7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="N7" s="24">
-        <v>15000</v>
-      </c>
-      <c r="O7" s="46"/>
-    </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="C7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="K7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="L7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="M7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="N7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="C8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="17">
         <f>C7*C8</f>
         <v>900</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="17">
         <f t="shared" ref="D9:N9" si="2">D7*D8</f>
         <v>900</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="17">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="O9" s="46"/>
-    </row>
-    <row r="10" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="24">
-        <v>120</v>
-      </c>
-      <c r="D10" s="24">
-        <v>120</v>
-      </c>
-      <c r="E10" s="24">
-        <v>120</v>
-      </c>
-      <c r="F10" s="24">
-        <v>120</v>
-      </c>
-      <c r="G10" s="24">
-        <v>120</v>
-      </c>
-      <c r="H10" s="24">
-        <v>120</v>
-      </c>
-      <c r="I10" s="24">
-        <v>120</v>
-      </c>
-      <c r="J10" s="24">
-        <v>120</v>
-      </c>
-      <c r="K10" s="24">
-        <v>120</v>
-      </c>
-      <c r="L10" s="24">
-        <v>120</v>
-      </c>
-      <c r="M10" s="24">
-        <v>120</v>
-      </c>
-      <c r="N10" s="24">
-        <v>120</v>
-      </c>
-      <c r="O10" s="46"/>
-    </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26" t="s">
+      <c r="C10" s="17">
+        <v>120</v>
+      </c>
+      <c r="D10" s="17">
+        <v>120</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="17">
+        <v>120</v>
+      </c>
+      <c r="G10" s="17">
+        <v>120</v>
+      </c>
+      <c r="H10" s="17">
+        <v>120</v>
+      </c>
+      <c r="I10" s="17">
+        <v>120</v>
+      </c>
+      <c r="J10" s="17">
+        <v>120</v>
+      </c>
+      <c r="K10" s="17">
+        <v>120</v>
+      </c>
+      <c r="L10" s="17">
+        <v>120</v>
+      </c>
+      <c r="M10" s="17">
+        <v>120</v>
+      </c>
+      <c r="N10" s="17">
+        <v>120</v>
+      </c>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="19">
         <f>C9-C10</f>
         <v>780</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:N11" si="3">D9-D10</f>
         <v>780</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="19">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="O11" s="46">
-        <f t="shared" ref="O7:O31" si="4">SUM(C11:N11)</f>
+      <c r="O11" s="34">
+        <f t="shared" ref="O11:O31" si="4">SUM(C11:N11)</f>
         <v>9360</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="D12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="E12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="F12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="G12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="I12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="J12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="K12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="N12" s="28">
-        <v>15000</v>
-      </c>
-      <c r="O12" s="46"/>
-    </row>
-    <row r="13" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="G12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="J12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="K12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="L12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="M12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="N12" s="20">
+        <v>15000</v>
+      </c>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="L13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="O13" s="46"/>
-    </row>
-    <row r="14" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="C13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="43"/>
+      <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="20">
         <f>C12*C13</f>
         <v>900</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="20">
         <f t="shared" ref="D14:N14" si="5">D12*D13</f>
         <v>900</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="20">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="O14" s="46"/>
-    </row>
-    <row r="15" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="43"/>
+      <c r="B15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="28">
-        <v>120</v>
-      </c>
-      <c r="D15" s="28">
-        <v>120</v>
-      </c>
-      <c r="E15" s="28">
-        <v>120</v>
-      </c>
-      <c r="F15" s="28">
-        <v>120</v>
-      </c>
-      <c r="G15" s="28">
-        <v>120</v>
-      </c>
-      <c r="H15" s="28">
-        <v>120</v>
-      </c>
-      <c r="I15" s="28">
-        <v>120</v>
-      </c>
-      <c r="J15" s="28">
-        <v>120</v>
-      </c>
-      <c r="K15" s="28">
-        <v>120</v>
-      </c>
-      <c r="L15" s="28">
-        <v>120</v>
-      </c>
-      <c r="M15" s="28">
-        <v>120</v>
-      </c>
-      <c r="N15" s="28">
-        <v>120</v>
-      </c>
-      <c r="O15" s="46"/>
-    </row>
-    <row r="16" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="20">
+        <v>120</v>
+      </c>
+      <c r="D15" s="20">
+        <v>120</v>
+      </c>
+      <c r="E15" s="20">
+        <v>120</v>
+      </c>
+      <c r="F15" s="20">
+        <v>120</v>
+      </c>
+      <c r="G15" s="20">
+        <v>120</v>
+      </c>
+      <c r="H15" s="20">
+        <v>120</v>
+      </c>
+      <c r="I15" s="20">
+        <v>120</v>
+      </c>
+      <c r="J15" s="20">
+        <v>120</v>
+      </c>
+      <c r="K15" s="20">
+        <v>120</v>
+      </c>
+      <c r="L15" s="20">
+        <v>120</v>
+      </c>
+      <c r="M15" s="20">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20">
+        <v>120</v>
+      </c>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="22">
         <f>C14-C15</f>
         <v>780</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="22">
         <f t="shared" ref="D16:N16" si="6">D14-D15</f>
         <v>780</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="22">
         <f t="shared" si="6"/>
         <v>780</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="34">
         <f t="shared" si="4"/>
         <v>9360</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="D17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="E17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="F17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="G17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="H17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="I17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="J17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="K17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="N17" s="32">
-        <v>15000</v>
-      </c>
-      <c r="O17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="C17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="I17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="J17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="K17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="L17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="M17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="N17" s="23">
+        <v>15000</v>
+      </c>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
+      <c r="B18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="24">
         <v>0.05</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="24">
         <v>0.05</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="24">
         <v>0.05</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="24">
         <v>0.05</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="24">
         <v>0.05</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="24">
         <v>0.05</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="24">
         <v>0.05</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="24">
         <v>0.05</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="24">
         <v>0.05</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="24">
         <v>0.05</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="24">
         <v>0.05</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="24">
         <v>0.05</v>
       </c>
-      <c r="O18" s="46"/>
-    </row>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="23">
         <f>C17*C18</f>
         <v>750</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="23">
         <f t="shared" ref="D19:N19" si="7">D17*D18</f>
         <v>750</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="23">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="O19" s="46"/>
-    </row>
-    <row r="20" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44"/>
+      <c r="B20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="32">
-        <v>120</v>
-      </c>
-      <c r="D20" s="32">
-        <v>120</v>
-      </c>
-      <c r="E20" s="32">
-        <v>120</v>
-      </c>
-      <c r="F20" s="32">
-        <v>120</v>
-      </c>
-      <c r="G20" s="32">
-        <v>120</v>
-      </c>
-      <c r="H20" s="32">
-        <v>120</v>
-      </c>
-      <c r="I20" s="32">
-        <v>120</v>
-      </c>
-      <c r="J20" s="32">
-        <v>120</v>
-      </c>
-      <c r="K20" s="32">
-        <v>120</v>
-      </c>
-      <c r="L20" s="32">
-        <v>120</v>
-      </c>
-      <c r="M20" s="32">
-        <v>120</v>
-      </c>
-      <c r="N20" s="32">
-        <v>120</v>
-      </c>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34" t="s">
+      <c r="C20" s="23">
+        <v>120</v>
+      </c>
+      <c r="D20" s="23">
+        <v>120</v>
+      </c>
+      <c r="E20" s="23">
+        <v>120</v>
+      </c>
+      <c r="F20" s="23">
+        <v>120</v>
+      </c>
+      <c r="G20" s="23">
+        <v>120</v>
+      </c>
+      <c r="H20" s="23">
+        <v>120</v>
+      </c>
+      <c r="I20" s="23">
+        <v>120</v>
+      </c>
+      <c r="J20" s="23">
+        <v>120</v>
+      </c>
+      <c r="K20" s="23">
+        <v>120</v>
+      </c>
+      <c r="L20" s="23">
+        <v>120</v>
+      </c>
+      <c r="M20" s="23">
+        <v>120</v>
+      </c>
+      <c r="N20" s="23">
+        <v>120</v>
+      </c>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="44"/>
+      <c r="B21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="25">
         <f>C19-C20</f>
         <v>630</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <f t="shared" ref="D21:N21" si="8">D19-D20</f>
         <v>630</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="25">
         <f t="shared" si="8"/>
         <v>630</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="34">
         <f t="shared" si="4"/>
         <v>7560</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="D22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="E22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="F22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="G22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="H22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="I22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="J22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="K22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="N22" s="36">
-        <v>15000</v>
-      </c>
-      <c r="O22" s="46"/>
-    </row>
-    <row r="23" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36" t="s">
+      <c r="C22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="D22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="G22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="H22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="I22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="J22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="L22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="M22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="N22" s="26">
+        <v>15000</v>
+      </c>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="45"/>
+      <c r="B23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="27">
         <v>0.05</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="27">
         <v>0.05</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="27">
         <v>0.05</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="27">
         <v>0.05</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="27">
         <v>0.05</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="27">
         <v>0.05</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="27">
         <v>0.05</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="27">
         <v>0.05</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="27">
         <v>0.05</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="27">
         <v>0.05</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="27">
         <v>0.05</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="27">
         <v>0.05</v>
       </c>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36" t="s">
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="32">
         <f>C22*C23</f>
         <v>750</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="32">
         <f t="shared" ref="D24:N24" si="9">D22*D23</f>
         <v>750</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="32">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="25" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36" t="s">
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="45"/>
+      <c r="B25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36">
-        <v>120</v>
-      </c>
-      <c r="D25" s="36">
-        <v>120</v>
-      </c>
-      <c r="E25" s="36">
-        <v>120</v>
-      </c>
-      <c r="F25" s="36">
-        <v>120</v>
-      </c>
-      <c r="G25" s="36">
-        <v>120</v>
-      </c>
-      <c r="H25" s="36">
-        <v>120</v>
-      </c>
-      <c r="I25" s="36">
-        <v>120</v>
-      </c>
-      <c r="J25" s="36">
-        <v>120</v>
-      </c>
-      <c r="K25" s="36">
-        <v>120</v>
-      </c>
-      <c r="L25" s="36">
-        <v>120</v>
-      </c>
-      <c r="M25" s="36">
-        <v>120</v>
-      </c>
-      <c r="N25" s="36">
-        <v>120</v>
-      </c>
-      <c r="O25" s="46"/>
-    </row>
-    <row r="26" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38" t="s">
+      <c r="C25" s="26">
+        <v>120</v>
+      </c>
+      <c r="D25" s="26">
+        <v>120</v>
+      </c>
+      <c r="E25" s="26">
+        <v>120</v>
+      </c>
+      <c r="F25" s="26">
+        <v>120</v>
+      </c>
+      <c r="G25" s="26">
+        <v>120</v>
+      </c>
+      <c r="H25" s="26">
+        <v>120</v>
+      </c>
+      <c r="I25" s="26">
+        <v>120</v>
+      </c>
+      <c r="J25" s="26">
+        <v>120</v>
+      </c>
+      <c r="K25" s="26">
+        <v>120</v>
+      </c>
+      <c r="L25" s="26">
+        <v>120</v>
+      </c>
+      <c r="M25" s="26">
+        <v>120</v>
+      </c>
+      <c r="N25" s="26">
+        <v>120</v>
+      </c>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="45"/>
+      <c r="B26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="28">
         <f>C24-C25</f>
         <v>630</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="28">
         <f t="shared" ref="D26:N26" si="10">D24-D25</f>
         <v>630</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="28">
         <f t="shared" si="10"/>
         <v>630</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="34">
         <f t="shared" si="4"/>
         <v>7560</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="40">
-        <v>15000</v>
-      </c>
-      <c r="D27" s="40">
-        <v>15000</v>
-      </c>
-      <c r="E27" s="40">
-        <v>15000</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="46"/>
-    </row>
-    <row r="28" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40" t="s">
+      <c r="C27" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D27" s="29">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="29">
+        <v>15000</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="34"/>
+    </row>
+    <row r="28" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="46"/>
+      <c r="B28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="30">
         <v>0.05</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="30">
         <v>0.05</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="30">
         <v>0.05</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="46"/>
-    </row>
-    <row r="29" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="46"/>
+      <c r="B29" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="29">
         <f>C27*C28</f>
         <v>750</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="29">
         <f t="shared" ref="D29:E29" si="11">D27*D28</f>
         <v>750</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="29">
         <f t="shared" si="11"/>
         <v>750</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="46"/>
-    </row>
-    <row r="30" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="46"/>
+      <c r="B30" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="40">
-        <v>120</v>
-      </c>
-      <c r="D30" s="40">
-        <v>120</v>
-      </c>
-      <c r="E30" s="40">
-        <v>120</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="46"/>
-    </row>
-    <row r="31" spans="1:15" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42" t="s">
+      <c r="C30" s="29">
+        <v>120</v>
+      </c>
+      <c r="D30" s="29">
+        <v>120</v>
+      </c>
+      <c r="E30" s="29">
+        <v>120</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="46"/>
+      <c r="B31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="31">
         <f>C29-C30</f>
         <v>630</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="31">
         <f t="shared" ref="D31:E31" si="12">D29-D30</f>
         <v>630</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="31">
         <f t="shared" si="12"/>
         <v>630</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="46">
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="34">
         <f t="shared" si="4"/>
         <v>1890</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38">
         <f>SUM(O2:O31)</f>
         <v>42750</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
